--- a/опт и Краснодар/2024/01,24/08,01,24 Сочи КИ/дв 08,01,24 счрсч.xlsx
+++ b/опт и Краснодар/2024/01,24/08,01,24 Сочи КИ/дв 08,01,24 счрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\08,01,24 Сочи КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2024\01,24\08,01,24 Сочи КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C580E-B134-4822-8FDE-2F6F2778838F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14328773-E7A7-4855-B215-49541D50C272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,10 +382,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -6250,8 +6254,8 @@
   <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <pane ySplit="5" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6493,10 +6497,6 @@
         <f>E6-I6</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="K6" s="2">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M6" s="2">
         <f>E6/3</f>
         <v>1.8466666666666667</v>
@@ -6629,10 +6629,6 @@
         <f t="shared" si="2"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="K8" s="2">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M8" s="2">
         <f t="shared" si="3"/>
         <v>0.47233333333333333</v>
@@ -6701,10 +6697,6 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="K9" s="2">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>5.666666666666667</v>
@@ -6845,10 +6837,6 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K11" s="2">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M11" s="2">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
@@ -6918,10 +6906,6 @@
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="K12" s="2">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M12" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -7059,10 +7043,6 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="K14" s="2">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
         <v>3.3333333333333335</v>
@@ -7130,10 +7110,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
         <v>5.333333333333333</v>
@@ -7201,10 +7177,6 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K16" s="2">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M16" s="2">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
@@ -7269,10 +7241,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="2">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7336,10 +7304,6 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K18" s="2">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
         <v>-0.33333333333333331</v>
@@ -7411,10 +7375,6 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K19" s="2">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
         <v>5.333333333333333</v>
@@ -7482,10 +7442,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="2">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
@@ -7555,10 +7511,6 @@
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="K21" s="2">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M21" s="2">
         <f t="shared" si="3"/>
         <v>-0.33333333333333331</v>
@@ -7626,10 +7578,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="2">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M22" s="2">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -7699,10 +7647,6 @@
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="K23" s="2">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M23" s="2">
         <f t="shared" si="3"/>
         <v>4.333333333333333</v>
@@ -7770,10 +7714,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="2">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M24" s="2">
         <f t="shared" si="3"/>
         <v>2.3333333333333335</v>
@@ -7841,10 +7781,6 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K25" s="2">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M25" s="2">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
@@ -8055,10 +7991,6 @@
         <f t="shared" si="2"/>
         <v>-8</v>
       </c>
-      <c r="K28" s="2">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M28" s="2">
         <f t="shared" si="3"/>
         <v>-1.3333333333333333</v>
@@ -8128,10 +8060,6 @@
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="K29" s="2">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M29" s="2">
         <f t="shared" si="3"/>
         <v>1.6666666666666667</v>
@@ -8201,10 +8129,6 @@
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="K30" s="2">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M30" s="2">
         <f t="shared" si="3"/>
         <v>6.666666666666667</v>
@@ -8334,10 +8258,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="2">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M32" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8463,10 +8383,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="2">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M34" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8605,10 +8521,6 @@
         <f t="shared" si="2"/>
         <v>-0.15999999999999659</v>
       </c>
-      <c r="K36" s="2">
-        <f>VLOOKUP(A36,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M36" s="2">
         <f t="shared" si="3"/>
         <v>11.613333333333335</v>
@@ -8675,10 +8587,6 @@
       <c r="J37" s="2">
         <f t="shared" si="2"/>
         <v>-5.9000000000000052E-2</v>
-      </c>
-      <c r="K37" s="2">
-        <f>VLOOKUP(A37,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
@@ -8747,10 +8655,6 @@
         <f t="shared" si="2"/>
         <v>-6.9999999999998952E-3</v>
       </c>
-      <c r="K38" s="2">
-        <f>VLOOKUP(A38,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M38" s="2">
         <f t="shared" si="3"/>
         <v>0.46433333333333332</v>
@@ -8809,10 +8713,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K39" s="2">
-        <f>VLOOKUP(A39,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M39" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8947,10 +8847,6 @@
         <f t="shared" si="2"/>
         <v>7.8999999999999959E-2</v>
       </c>
-      <c r="K41" s="2">
-        <f>VLOOKUP(A41,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M41" s="2">
         <f t="shared" si="3"/>
         <v>0.45966666666666667</v>
@@ -9018,10 +8914,6 @@
         <f t="shared" si="2"/>
         <v>0.22599999999999998</v>
       </c>
-      <c r="K42" s="2">
-        <f>VLOOKUP(A42,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M42" s="2">
         <f t="shared" si="3"/>
         <v>1.8086666666666666</v>
@@ -9090,10 +8982,6 @@
         <f t="shared" si="2"/>
         <v>-3.6159999999999997</v>
       </c>
-      <c r="K43" s="2">
-        <f>VLOOKUP(A43,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M43" s="2">
         <f t="shared" si="3"/>
         <v>14.020333333333333</v>
@@ -9164,10 +9052,6 @@
         <f t="shared" si="2"/>
         <v>-1.3890000000000011</v>
       </c>
-      <c r="K44" s="2">
-        <f>VLOOKUP(A44,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M44" s="2">
         <f t="shared" si="3"/>
         <v>4.9733333333333336</v>
@@ -9238,10 +9122,6 @@
       <c r="J45" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <f>VLOOKUP(A45,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="3"/>
@@ -9449,10 +9329,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K48" s="2">
-        <f>VLOOKUP(A48,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M48" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9655,10 +9531,6 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="K51" s="2">
-        <f>VLOOKUP(A51,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M51" s="2">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
@@ -9727,10 +9599,6 @@
         <f t="shared" si="2"/>
         <v>-1.3160000000000001</v>
       </c>
-      <c r="K52" s="2">
-        <f>VLOOKUP(A52,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M52" s="2">
         <f t="shared" si="3"/>
         <v>-5.3333333333333332E-3</v>
@@ -9801,10 +9669,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K53" s="2">
-        <f>VLOOKUP(A53,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M53" s="2">
         <f t="shared" si="3"/>
         <v>5.666666666666667</v>
@@ -9873,10 +9737,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K54" s="2">
-        <f>VLOOKUP(A54,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M54" s="2">
         <f t="shared" si="3"/>
         <v>3.3333333333333335</v>
@@ -9945,10 +9805,6 @@
       <c r="J55" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
-      </c>
-      <c r="K55" s="2">
-        <f>VLOOKUP(A55,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="3"/>
@@ -10083,10 +9939,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K57" s="2">
-        <f>VLOOKUP(A57,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M57" s="2">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -10154,10 +10006,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K58" s="2">
-        <f>VLOOKUP(A58,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M58" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -10223,10 +10071,6 @@
       </c>
       <c r="J59" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <f>VLOOKUP(A59,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M59" s="2">
@@ -10358,10 +10202,6 @@
       <c r="J61" s="2">
         <f t="shared" si="2"/>
         <v>0.45000000000000018</v>
-      </c>
-      <c r="K61" s="2">
-        <f>VLOOKUP(A61,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="3"/>
@@ -10417,10 +10257,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K62" s="2">
-        <f>VLOOKUP(A62,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M62" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10486,10 +10322,6 @@
       <c r="J63" s="2">
         <f t="shared" si="2"/>
         <v>-5.2999999999999936E-2</v>
-      </c>
-      <c r="K63" s="2">
-        <f>VLOOKUP(A63,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="3"/>
@@ -10772,10 +10604,6 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="K67" s="2">
-        <f>VLOOKUP(A67,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M67" s="2">
         <f t="shared" si="3"/>
         <v>-0.33333333333333331</v>
@@ -10844,10 +10672,6 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="K68" s="2">
-        <f>VLOOKUP(A68,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M68" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10986,10 +10810,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K70" s="2">
-        <f>VLOOKUP(A70,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M70" s="2">
         <f t="shared" si="3"/>
         <v>6.333333333333333</v>
@@ -11258,10 +11078,6 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K74" s="2">
-        <f>VLOOKUP(A74,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M74" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -11332,10 +11148,6 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K75" s="2">
-        <f>VLOOKUP(A75,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M75" s="2">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -11405,10 +11217,6 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K76" s="2">
-        <f>VLOOKUP(A76,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M76" s="2">
         <f t="shared" si="11"/>
         <v>6.333333333333333</v>
@@ -11537,10 +11345,6 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K78" s="2">
-        <f>VLOOKUP(A78,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M78" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -11603,10 +11407,6 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K79" s="2">
-        <f>VLOOKUP(A79,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M79" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -11673,10 +11473,6 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K80" s="2">
-        <f>VLOOKUP(A80,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M80" s="2">
         <f t="shared" si="11"/>
         <v>2.6666666666666665</v>
@@ -11743,10 +11539,6 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K81" s="2">
-        <f>VLOOKUP(A81,[1]TDSheet!$A:$O,15,0)</f>
-        <v>0</v>
-      </c>
       <c r="M81" s="2">
         <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
@@ -11811,10 +11603,6 @@
       </c>
       <c r="J82" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <f>VLOOKUP(A82,[1]TDSheet!$A:$O,15,0)</f>
         <v>0</v>
       </c>
       <c r="M82" s="2">
